--- a/src/Hearts.xlsx
+++ b/src/Hearts.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,27 +415,63 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>SUM(A3:A15)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <f>SUM(B3:B15)</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <f>SUM(C3:C15)</f>
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <f>SUM(D3:D15)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
